--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_electricos_consumo_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_electricos_consumo_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC66039-6253-4E5A-B34D-F3541A59A0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,10 +28,16 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1281,9 +1288,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -2041,7 +2048,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2094,7 +2101,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2122,9 +2129,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,7 +2171,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2178,7 +2185,7 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,26 +2425,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2462,7 +2469,7 @@
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="2"/>
+    <cellStyle name="Normal 10 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2500,7 +2507,7 @@
             <xdr:cNvPr id="2" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3067,7 +3074,7 @@
             <xdr:cNvPr id="7" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3827,7 +3834,7 @@
             <xdr:cNvPr id="9" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4256,7 +4263,7 @@
         <xdr:cNvPr id="10" name="Flecha derecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4313,7 +4320,7 @@
             <xdr:cNvPr id="12" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4875,7 +4882,7 @@
             <xdr:cNvPr id="17" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5557,7 +5564,7 @@
             <xdr:cNvPr id="19" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6768,7 +6775,7 @@
         <xdr:cNvPr id="20" name="Flecha derecha 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6828,7 +6835,7 @@
         <xdr:cNvPr id="21" name="Flecha derecha 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6888,7 +6895,7 @@
         <xdr:cNvPr id="22" name="Flecha derecha 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6945,7 +6952,7 @@
             <xdr:cNvPr id="23" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7229,7 +7236,7 @@
         <xdr:cNvPr id="24" name="Flecha derecha 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7286,7 +7293,7 @@
             <xdr:cNvPr id="25" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8335,7 +8342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:G51"/>
   <sheetViews>
@@ -8702,7 +8709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:G19"/>
   <sheetViews>
@@ -8907,7 +8914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:L11"/>
   <sheetViews>
@@ -8988,12 +8995,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -9036,56 +9043,56 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N2" s="161" t="s">
+      <c r="N2" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="T2" s="161" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="T2" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="H3" s="157" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="H3" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="N3" s="157" t="s">
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="N3" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="157"/>
-      <c r="T3" s="157" t="s">
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="T3" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
+      <c r="A4" s="156"/>
       <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
@@ -9148,7 +9155,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="17" t="s">
         <v>46</v>
       </c>
@@ -9224,7 +9231,7 @@
       <c r="Z5" s="23"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
@@ -9299,7 +9306,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
@@ -9399,40 +9406,40 @@
       <c r="X8" s="38"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="H10" s="157" t="s">
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="H10" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="N10" s="157" t="s">
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="N10" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="157"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="157"/>
-      <c r="T10" s="157" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="T10" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="157"/>
-      <c r="V10" s="157"/>
-      <c r="W10" s="157"/>
-      <c r="X10" s="157"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
@@ -9495,7 +9502,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
+      <c r="A12" s="156"/>
       <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
@@ -9570,7 +9577,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
@@ -9670,40 +9677,40 @@
       <c r="X14" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="H16" s="157" t="s">
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="H16" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="N16" s="157" t="s">
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="N16" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="157"/>
-      <c r="T16" s="157" t="s">
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="155"/>
+      <c r="T16" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
@@ -9766,7 +9773,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
+      <c r="A18" s="156"/>
       <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
@@ -9837,7 +9844,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
@@ -9957,40 +9964,40 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160" t="s">
+      <c r="A22" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="H22" s="157" t="s">
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="H22" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="N22" s="157" t="s">
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="N22" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="T22" s="157" t="s">
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
+      <c r="T22" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="19" t="s">
         <v>44</v>
       </c>
@@ -10053,7 +10060,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+      <c r="A24" s="156"/>
       <c r="B24" s="17" t="s">
         <v>46</v>
       </c>
@@ -10125,7 +10132,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
+      <c r="A25" s="156"/>
       <c r="B25" s="17" t="s">
         <v>48</v>
       </c>
@@ -10222,40 +10229,40 @@
       <c r="X26" s="38"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="H28" s="157" t="s">
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="H28" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="N28" s="157" t="s">
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="N28" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="157"/>
-      <c r="T28" s="157" t="s">
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
+      <c r="T28" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="157"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
+      <c r="A29" s="159"/>
       <c r="B29" s="19" t="s">
         <v>44</v>
       </c>
@@ -10318,7 +10325,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
+      <c r="A30" s="159"/>
       <c r="B30" s="17" t="s">
         <v>47</v>
       </c>
@@ -10392,12 +10399,12 @@
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
       <c r="F31" s="38"/>
       <c r="H31" s="22"/>
       <c r="I31" s="39"/>
@@ -10416,40 +10423,40 @@
       <c r="X31" s="38"/>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="H33" s="157" t="s">
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="H33" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="N33" s="157" t="s">
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="N33" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="157"/>
-      <c r="T33" s="157" t="s">
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
+      <c r="T33" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
     </row>
     <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="156"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
@@ -10512,7 +10519,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="156"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="17" t="s">
         <v>47</v>
       </c>
@@ -10586,12 +10593,12 @@
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
       <c r="F36" s="38"/>
       <c r="H36" s="22"/>
       <c r="I36" s="39"/>
@@ -10730,27 +10737,27 @@
       <c r="G46" s="35"/>
     </row>
     <row r="48" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="159" t="s">
+      <c r="C48" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
-      <c r="L48" s="159"/>
-      <c r="M48" s="159"/>
-      <c r="N48" s="159"/>
-      <c r="O48" s="159"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="157"/>
+      <c r="O48" s="157"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="159"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="33">
         <v>2018</v>
       </c>
@@ -11699,14 +11706,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:O48"/>
     <mergeCell ref="A16:A19"/>
@@ -11723,29 +11734,25 @@
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="T22:X22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="F65" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="F64" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="F63" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="F62" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="F61" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="F60" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="F59" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="K88" r:id="rId9"/>
+    <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F65" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F64" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F63" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F62" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="F61" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F60" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F59" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="K88" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -11753,11 +11760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12058,13 +12065,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>[7]Variables!#REF!</xm:f>
+            <xm:f>'C:\Users\JK\Desktop\[4.1.Vehiculos_electricos_recorrido_exp.xlsx]Variables'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C7:C12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Variables!$D$3:$D$6</xm:f>
           </x14:formula1>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_electricos_consumo_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_electricos_consumo_exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC66039-6253-4E5A-B34D-F3541A59A0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1285E8F-148C-4122-A30D-DF214E500CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -2335,12 +2335,6 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="27" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2425,26 +2419,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2463,6 +2457,12 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8371,34 +8371,34 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="139"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="137"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -8407,10 +8407,10 @@
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="144"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
@@ -8422,10 +8422,10 @@
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="146"/>
+      <c r="E10" s="144"/>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
@@ -8738,14 +8738,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -8756,14 +8756,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148" t="s">
+      <c r="C6" s="146"/>
+      <c r="D6" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="148"/>
+      <c r="E6" s="146"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -8812,17 +8812,17 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="151"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="150" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -8840,7 +8840,7 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="153"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="14" t="s">
         <v>31</v>
       </c>
@@ -8856,7 +8856,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="154"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
@@ -8999,8 +8999,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="C12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -9043,23 +9043,23 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N2" s="158" t="s">
+      <c r="N2" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="T2" s="158" t="s">
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="T2" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="158" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="155" t="s">
@@ -9092,7 +9092,7 @@
       <c r="X3" s="155"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
@@ -9155,7 +9155,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="17" t="s">
         <v>46</v>
       </c>
@@ -9231,7 +9231,7 @@
       <c r="Z5" s="23"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="156"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
@@ -9406,7 +9406,7 @@
       <c r="X8" s="38"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="158" t="s">
         <v>139</v>
       </c>
       <c r="B10" s="155" t="s">
@@ -9439,7 +9439,7 @@
       <c r="X10" s="155"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
@@ -9502,7 +9502,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
@@ -9577,7 +9577,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
@@ -9677,7 +9677,7 @@
       <c r="X14" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="158" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="155" t="s">
@@ -9710,7 +9710,7 @@
       <c r="X16" s="155"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="156"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
@@ -9773,7 +9773,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
@@ -9844,7 +9844,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
@@ -9964,7 +9964,7 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="158" t="s">
         <v>140</v>
       </c>
       <c r="B22" s="155" t="s">
@@ -9997,7 +9997,7 @@
       <c r="X22" s="155"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="19" t="s">
         <v>44</v>
       </c>
@@ -10060,7 +10060,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="17" t="s">
         <v>46</v>
       </c>
@@ -10132,7 +10132,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="17" t="s">
         <v>48</v>
       </c>
@@ -10229,7 +10229,7 @@
       <c r="X26" s="38"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="156" t="s">
         <v>142</v>
       </c>
       <c r="B28" s="155" t="s">
@@ -10262,7 +10262,7 @@
       <c r="X28" s="155"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="159"/>
+      <c r="A29" s="156"/>
       <c r="B29" s="19" t="s">
         <v>44</v>
       </c>
@@ -10325,7 +10325,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="159"/>
+      <c r="A30" s="156"/>
       <c r="B30" s="17" t="s">
         <v>47</v>
       </c>
@@ -10399,12 +10399,12 @@
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
       <c r="F31" s="38"/>
       <c r="H31" s="22"/>
       <c r="I31" s="39"/>
@@ -10423,7 +10423,7 @@
       <c r="X31" s="38"/>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161" t="s">
+      <c r="A33" s="154" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="155" t="s">
@@ -10456,7 +10456,7 @@
       <c r="X33" s="155"/>
     </row>
     <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
@@ -10519,7 +10519,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="161"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="17" t="s">
         <v>47</v>
       </c>
@@ -10593,12 +10593,12 @@
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="B36" s="160" t="s">
+      <c r="B36" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
       <c r="F36" s="38"/>
       <c r="H36" s="22"/>
       <c r="I36" s="39"/>
@@ -11706,18 +11706,14 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="T22:X22"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:O48"/>
     <mergeCell ref="A16:A19"/>
@@ -11734,14 +11730,18 @@
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="N33:R33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -11764,18 +11764,18 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="130" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="131" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11788,13 +11788,13 @@
       <c r="E4" s="107"/>
       <c r="F4" s="106"/>
       <c r="G4" s="108"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="164" t="s">
+      <c r="I4" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="166" t="s">
+      <c r="J4" s="164" t="s">
         <v>189</v>
       </c>
     </row>
@@ -11808,7 +11808,7 @@
       <c r="D5" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="129" t="s">
         <v>200</v>
       </c>
       <c r="F5" s="109" t="s">
@@ -11817,9 +11817,9 @@
       <c r="G5" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="163"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="167"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B6" s="111" t="s">
@@ -11869,15 +11869,15 @@
       <c r="G7" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="166">
         <f>E7*1000/Factores!$C$41*Factores!$V$7/1000000</f>
         <v>243.85133230103492</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="167">
         <f>(E7/(1-Factores!C67)*1000/Factores!C41*Factores!C50/1000)</f>
         <v>42.167331466937547</v>
       </c>
-      <c r="J7" s="123">
+      <c r="J7" s="121">
         <f>H7-I7</f>
         <v>201.68400083409736</v>
       </c>
@@ -11901,15 +11901,15 @@
       <c r="G8" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="166">
         <f>E8*1000/Factores!C43*Factores!V12/1000000</f>
         <v>180.07994670726831</v>
       </c>
-      <c r="I8" s="122">
+      <c r="I8" s="167">
         <f>(E8/(1-Factores!C67)*1000/Factores!C43*Factores!C52/1000)</f>
         <v>48.622335638281641</v>
       </c>
-      <c r="J8" s="123">
+      <c r="J8" s="121">
         <f t="shared" ref="J8:J12" si="0">H8-I8</f>
         <v>131.45761106898667</v>
       </c>
@@ -11933,15 +11933,15 @@
       <c r="G9" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="166">
         <f>E9*1000/Factores!C42*Factores!V19/1000000</f>
         <v>301.60149323423457</v>
       </c>
-      <c r="I9" s="122">
+      <c r="I9" s="167">
         <f>(E9/(1-Factores!C67)*1000/Factores!C42*Factores!C51/1000)</f>
         <v>70.084538478616921</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="121">
         <f>H9-I9</f>
         <v>231.51695475561763</v>
       </c>
@@ -11965,17 +11965,17 @@
       <c r="G10" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="121">
-        <f>E10*1000/Factores!C42*Factores!V25/1000000</f>
-        <v>540.64212144592307</v>
-      </c>
-      <c r="I10" s="122">
+      <c r="H10" s="166">
+        <f>E10*1000/Factores!C44*Factores!V25/1000000</f>
+        <v>836.92823142253769</v>
+      </c>
+      <c r="I10" s="167">
         <f>(E10/(1-Factores!C67)*1000/Factores!C44*Factores!C53/1000)</f>
         <v>77.681778422098404</v>
       </c>
-      <c r="J10" s="123">
+      <c r="J10" s="121">
         <f>H10-I10</f>
-        <v>462.96034302382463</v>
+        <v>759.24645300043926</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -11988,7 +11988,7 @@
       <c r="D11" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="122">
         <v>2430</v>
       </c>
       <c r="F11" s="117">
@@ -11997,15 +11997,15 @@
       <c r="G11" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="166">
         <f>E11*1000/Factores!$C$45*Factores!$V$30/1000000</f>
         <v>4323.6389072340735</v>
       </c>
-      <c r="I11" s="122">
+      <c r="I11" s="167">
         <f>(E11/(1-Factores!C67)*1000/Factores!C45*Factores!D54/1000)</f>
         <v>461.53232656650158</v>
       </c>
-      <c r="J11" s="123">
+      <c r="J11" s="121">
         <f t="shared" ref="J11" si="1">H11-I11</f>
         <v>3862.106580667572</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="D12" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="124">
+      <c r="E12" s="122">
         <v>1660</v>
       </c>
       <c r="F12" s="117">
@@ -12029,30 +12029,30 @@
       <c r="G12" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="121">
+      <c r="H12" s="166">
         <f>E12*1000/Factores!C46*Factores!V35/1000000</f>
         <v>3945.3951864533119</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="167">
         <f>(E12/(1-Factores!C67)*1000/Factores!C46*Factores!D55/1000)</f>
         <v>315.28545765448251</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="121">
         <f t="shared" si="0"/>
         <v>3630.1097287988296</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="130">
+      <c r="B13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128">
         <f>SUM(J7:J12)</f>
-        <v>8519.8352191489284</v>
+        <v>8816.1213291255426</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_electricos_consumo_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_electricos_consumo_exp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1285E8F-148C-4122-A30D-DF214E500CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201F3E91-DD03-40E6-995C-F7FA003C0EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="201">
   <si>
     <t>Promoción de vehículos eléctricos a nivel nacional</t>
   </si>
@@ -167,12 +167,6 @@
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Número de vehículos de este tipo.</t>
   </si>
   <si>
     <t>Factor de emisión</t>
@@ -2053,7 +2047,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2343,7 +2337,6 @@
     <xf numFmtId="3" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2356,6 +2349,12 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -2419,26 +2418,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2457,12 +2456,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8371,34 +8364,34 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="B4" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="135"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="137"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="140"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -8407,10 +8400,10 @@
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="142"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
@@ -8422,29 +8415,29 @@
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="144"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8457,75 +8450,75 @@
     </row>
     <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -8538,76 +8531,76 @@
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:5" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:5" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -8620,58 +8613,58 @@
     </row>
     <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -8679,21 +8672,21 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -8738,14 +8731,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -8756,14 +8749,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146" t="s">
+      <c r="C6" s="147"/>
+      <c r="D6" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="146"/>
+      <c r="E6" s="147"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -8812,17 +8805,17 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="150"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="151" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -8840,7 +8833,7 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="151"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="14" t="s">
         <v>31</v>
       </c>
@@ -8856,7 +8849,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="152"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
@@ -8936,52 +8929,52 @@
         <v>40</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -9034,7 +9027,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="91"/>
@@ -9043,121 +9036,121 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N2" s="159" t="s">
+      <c r="N2" s="157" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="T2" s="157" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="T2" s="159" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="H3" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="N3" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="T3" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="155"/>
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="H3" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="N3" s="155" t="s">
+      <c r="D4" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="T3" s="155" t="s">
+      <c r="H4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="19" t="s">
+      <c r="K4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="155"/>
+      <c r="B5" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="C5" s="55">
         <f>[1]Resumen!C3</f>
@@ -9172,10 +9165,10 @@
         <v>12.530008916346404</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="68">
         <f>C5/$C$84/1000</f>
@@ -9190,10 +9183,10 @@
         <v>347.69875122106492</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" s="56">
         <f>((1/(I5*1000))*($G$84+$H$84*$L$85+$I$84*$L$86))*1000</f>
@@ -9208,10 +9201,10 @@
         <v>169.65336556131649</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U5" s="56">
         <f t="shared" ref="U5:W6" si="0">O5</f>
@@ -9226,14 +9219,14 @@
         <v>169.65336556131649</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="23"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="55">
         <f>[1]Resumen!C4</f>
@@ -9248,10 +9241,10 @@
         <v>10.83830478022222</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="68">
         <f>C6/$C$85/1000</f>
@@ -9266,10 +9259,10 @@
         <v>410.65544339288232</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O6" s="57">
         <f>((1/(I6*1000))*($G$85+$H$85*$L$85+$I$85*$L$86))*1000</f>
@@ -9284,10 +9277,10 @@
         <v>156.97831609728837</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U6" s="56">
         <f t="shared" si="0"/>
@@ -9302,13 +9295,13 @@
         <v>156.97831609728837</v>
       </c>
       <c r="X6" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="55">
         <f>[1]Resumen!C5</f>
@@ -9323,10 +9316,10 @@
         <v>52.548857142857138</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="68">
         <f>C7/$C$86/1000</f>
@@ -9341,10 +9334,10 @@
         <v>445.8605827694949</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O7" s="57">
         <f>((1/(I7*1000))*($G$86+$H$86*$L$85+$I$86*$L$86))*1000</f>
@@ -9359,10 +9352,10 @@
         <v>159.20896070038665</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U7" s="56">
         <f>O7-O7*$Q$83</f>
@@ -9377,13 +9370,13 @@
         <v>147.08544001052445</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="93"/>
@@ -9406,105 +9399,105 @@
       <c r="X8" s="38"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="155" t="s">
+      <c r="A10" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="H10" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="N10" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="T10" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="155"/>
+      <c r="B11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="H10" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="N10" s="155" t="s">
+      <c r="D11" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="T10" s="155" t="s">
+      <c r="H11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
-      <c r="B11" s="19" t="s">
+      <c r="K11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="155"/>
+      <c r="B12" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
-      <c r="B12" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="55">
         <f>C18*1.7</f>
@@ -9519,10 +9512,10 @@
         <v>3.0353419584377774</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="68">
         <f>C12/$C$84/1000</f>
@@ -9537,10 +9530,10 @@
         <v>84.228560053208156</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O12" s="68">
         <f>((1/(I12*1000))*($G$84+$H$84*$L$85+$I$84*$L$86))*1000</f>
@@ -9555,10 +9548,10 @@
         <v>700.33564991324795</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U12" s="68">
         <f>O12</f>
@@ -9573,13 +9566,13 @@
         <v>700.33564991324795</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="55">
         <f>[2]Resumen!D6</f>
@@ -9594,10 +9587,10 @@
         <v>20.25</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="68">
         <f>C13/$C$87/1000</f>
@@ -9612,10 +9605,10 @@
         <v>150.55271023562341</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O13" s="70">
         <f>((1/(I13*1000))*($G$87+$H$87*$L$85+$I$87*$L$86))*1000</f>
@@ -9630,10 +9623,10 @@
         <v>500.76082909440169</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U13" s="68">
         <f>O13-O13*$Q$84</f>
@@ -9648,13 +9641,13 @@
         <v>476.15150791910389</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="95"/>
@@ -9677,105 +9670,105 @@
       <c r="X14" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="158" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="155" t="s">
+      <c r="A16" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="H16" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="N16" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="T16" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="155"/>
+      <c r="B17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="H16" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="N16" s="155" t="s">
+      <c r="D17" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="155"/>
-      <c r="T16" s="155" t="s">
+      <c r="H17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="158"/>
-      <c r="B17" s="19" t="s">
+      <c r="K17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="155"/>
+      <c r="B18" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="C18" s="55">
         <v>1.503053503257298</v>
@@ -9787,10 +9780,10 @@
         <v>1.785495269669281</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I18" s="68">
         <f>C18/$C$84/1000</f>
@@ -9804,10 +9797,10 @@
         <v>49.546211796004805</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O18" s="68">
         <f>((1/(I18*1000))*($G$84+$H$84*$L$85+$I$84*$L$86))*1000</f>
@@ -9822,10 +9815,10 @@
         <v>1190.5706048525212</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U18" s="68">
         <f>O18</f>
@@ -9840,13 +9833,13 @@
         <v>1190.5706048525212</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="55">
         <v>9.3428461906369566</v>
@@ -9858,10 +9851,10 @@
         <v>11.046739794555187</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="68">
         <f>C19/$C$87/1000</f>
@@ -9876,10 +9869,10 @@
         <v>82.129215572246778</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O19" s="70">
         <f>((1/(I19*1000))*($G$87+$H$87*$L$85+$I$87*$L$86))*1000</f>
@@ -9894,10 +9887,10 @@
         <v>917.95470679591153</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U19" s="68">
         <f>O19-O19*$Q$84</f>
@@ -9912,13 +9905,13 @@
         <v>872.84286718822875</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="96"/>
@@ -9964,105 +9957,105 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="155" t="s">
+      <c r="A22" s="155" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="H22" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="N22" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="T22" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="155"/>
+      <c r="B23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="H22" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="N22" s="155" t="s">
+      <c r="D23" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
-      <c r="T22" s="155" t="s">
+      <c r="H23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-    </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
-      <c r="B23" s="19" t="s">
+      <c r="K23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V23" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="155"/>
+      <c r="B24" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P23" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V23" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="158"/>
-      <c r="B24" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="55">
         <v>0.96</v>
@@ -10074,10 +10067,10 @@
         <v>1.25</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I24" s="68">
         <f>C24/$C$84/1000</f>
@@ -10092,10 +10085,10 @@
         <v>34.686602533804262</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O24" s="68">
         <f>((1/(I24*1000))*($G$84+$H$84*$L$85+$I$84*$L$86))*1000</f>
@@ -10110,10 +10103,10 @@
         <v>1700.6065465371773</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U24" s="68">
         <f>O24</f>
@@ -10128,13 +10121,13 @@
         <v>1700.6065465371773</v>
       </c>
       <c r="X24" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="55">
         <v>5.9</v>
@@ -10146,10 +10139,10 @@
         <v>6.6</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I25" s="68">
         <f>C25/$C$87/1000</f>
@@ -10164,10 +10157,10 @@
         <v>49.06903148420318</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O25" s="70">
         <f>((1/(I25*1000))*($G$87+$H$87*$L$85+$I$87*$L$86))*1000</f>
@@ -10182,10 +10175,10 @@
         <v>1536.425271085096</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U25" s="68">
         <f>O25-O25*$Q$84</f>
@@ -10200,13 +10193,13 @@
         <v>1460.9193992972505</v>
       </c>
       <c r="X25" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
       <c r="B26" s="60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="95"/>
@@ -10229,105 +10222,105 @@
       <c r="X26" s="38"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="155" t="s">
+      <c r="A28" s="158" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="H28" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="N28" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="T28" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="158"/>
+      <c r="B29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="H28" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="N28" s="155" t="s">
+      <c r="D29" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="T28" s="155" t="s">
+      <c r="H29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-    </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
-      <c r="B29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="80" t="s">
+      <c r="K29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="P29" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="R29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="158"/>
+      <c r="B30" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V29" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
-      <c r="B30" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="C30" s="55">
         <v>74</v>
@@ -10340,10 +10333,10 @@
         <v>86</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I30" s="68">
         <f>C30/$C$86/1000</f>
@@ -10358,10 +10351,10 @@
         <v>729.68304551202959</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O30" s="70">
         <f>((1/(I30*1000))*($G$86+$H$86*$L$85+$I$86*$L$86))*1000</f>
@@ -10376,10 +10369,10 @@
         <v>97.281964322178766</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U30" s="20">
         <f>O30-O30*$Q$83</f>
@@ -10394,17 +10387,17 @@
         <v>89.87409040589921</v>
       </c>
       <c r="X30" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="153" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
+      <c r="B31" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
       <c r="F31" s="38"/>
       <c r="H31" s="22"/>
       <c r="I31" s="39"/>
@@ -10423,105 +10416,105 @@
       <c r="X31" s="38"/>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="154" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="155" t="s">
+      <c r="A33" s="160" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="H33" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="N33" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="T33" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+    </row>
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="160"/>
+      <c r="B34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="H33" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="N33" s="155" t="s">
+      <c r="D34" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="155"/>
-      <c r="T33" s="155" t="s">
+      <c r="H34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-    </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="154"/>
-      <c r="B34" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="80" t="s">
+      <c r="K34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="P34" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="R34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V34" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="160"/>
+      <c r="B35" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P34" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V34" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="154"/>
-      <c r="B35" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="C35" s="55">
         <v>110</v>
@@ -10534,10 +10527,10 @@
         <v>130</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I35" s="68">
         <f>C35/$C$86/1000</f>
@@ -10552,10 +10545,10 @@
         <v>1103.0092548437656</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O35" s="70">
         <f>((1/(I35*1000))*($G$86+$H$86*$L$85+$I$86*$L$86))*1000</f>
@@ -10570,10 +10563,10 @@
         <v>64.35576101313363</v>
       </c>
       <c r="R35" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U35" s="20">
         <f>O35-O35*$Q$83</f>
@@ -10588,17 +10581,17 @@
         <v>59.455167499287157</v>
       </c>
       <c r="X35" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="B36" s="153" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
+      <c r="B36" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="38"/>
       <c r="H36" s="22"/>
       <c r="I36" s="39"/>
@@ -10618,34 +10611,34 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B40" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>128</v>
-      </c>
       <c r="D40" s="97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="73">
         <v>0.16289999999999999</v>
       </c>
       <c r="D41" s="89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F41" s="72">
         <f>C41</f>
@@ -10654,13 +10647,13 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="73">
         <v>1.1765000000000001</v>
       </c>
       <c r="D42" s="89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F42" s="72">
         <f>C42*1</f>
@@ -10670,13 +10663,13 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="74">
         <v>1.1000000000000001</v>
       </c>
       <c r="D43" s="98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F43" s="72">
         <f>C43*1</f>
@@ -10686,13 +10679,13 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C44" s="74">
         <v>0.76</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="72">
         <f>C44*1</f>
@@ -10702,13 +10695,13 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" s="74">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="72">
         <f>C45*1</f>
@@ -10718,13 +10711,13 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C46" s="74">
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E46" s="72">
         <f>C46*1</f>
@@ -10737,27 +10730,27 @@
       <c r="G46" s="35"/>
     </row>
     <row r="48" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="157" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="157" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="157"/>
-      <c r="O48" s="157"/>
+      <c r="B48" s="156" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="156" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
+      <c r="N48" s="156"/>
+      <c r="O48" s="156"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="157"/>
+      <c r="B49" s="156"/>
       <c r="C49" s="33">
         <v>2018</v>
       </c>
@@ -10800,7 +10793,7 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="74">
         <v>2.76E-2</v>
@@ -10830,7 +10823,7 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C51" s="74">
         <f>$P$68*(C42/(1-$C$67))</f>
@@ -10862,7 +10855,7 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" s="74">
         <f>$P$68*(C43/(1-$C$67))</f>
@@ -10894,7 +10887,7 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53" s="74">
         <f>$P$68*(C44/(1-$C$67))</f>
@@ -10926,7 +10919,7 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C54" s="74">
         <f>$P$68*(C45/(1-$C$67))</f>
@@ -10958,7 +10951,7 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C55" s="74">
         <f>$P$68*(C46/(1-$C$67))</f>
@@ -11006,10 +10999,10 @@
     </row>
     <row r="57" spans="2:17" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B57" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="2:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11017,13 +11010,13 @@
         <v>11</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D58" s="101" t="s">
         <v>21</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="2:17" ht="18.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11038,13 +11031,13 @@
         <v>0.104</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O59" s="28" t="s">
         <v>11</v>
       </c>
       <c r="P59" s="86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="2:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11059,7 +11052,7 @@
         <v>0.108</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O60" s="29">
         <v>2010</v>
@@ -11085,7 +11078,7 @@
         <v>0.109</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O61" s="30">
         <v>2011</v>
@@ -11111,7 +11104,7 @@
         <v>0.109</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O62" s="30">
         <v>2012</v>
@@ -11137,7 +11130,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O63" s="30">
         <v>2013</v>
@@ -11163,7 +11156,7 @@
         <v>0.113</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O64" s="30">
         <v>2014</v>
@@ -11189,7 +11182,7 @@
         <v>0.109</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O65" s="30">
         <v>2015</v>
@@ -11215,7 +11208,7 @@
         <v>0.108</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O66" s="30">
         <v>2016</v>
@@ -11415,54 +11408,54 @@
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P82" s="88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D83" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K83" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="L83" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="M83" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="N83" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="P83" s="89" t="s">
         <v>45</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K83" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="L83" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="M83" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="N83" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="P83" s="89" t="s">
-        <v>47</v>
       </c>
       <c r="Q83" s="67">
         <f>1-(G86*0.922+H86*L85+I86*L86)/(G86+H86*L85+I86*L86)</f>
@@ -11471,17 +11464,17 @@
     </row>
     <row r="84" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C84" s="63">
         <f>'[5]Fact. con.'!$E$180</f>
         <v>3.6036968416892283E-5</v>
       </c>
       <c r="D84" s="103" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F84" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G84" s="64">
         <f>'[5]FE CE'!$F$39</f>
@@ -11496,7 +11489,7 @@
         <v>3</v>
       </c>
       <c r="K84" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L84" s="65">
         <v>1</v>
@@ -11508,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q84" s="67">
         <f>1-(G87*0.95+H87*L85+I87*L86)/(G87+H87*L85+I87*L86)</f>
@@ -11517,17 +11510,17 @@
     </row>
     <row r="85" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C85" s="63">
         <f>'[5]Fact. con.'!$E$179/1000</f>
         <v>2.6392697222457117E-5</v>
       </c>
       <c r="D85" s="103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F85" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G85" s="64">
         <f>'[6]FE GL - 1A3b'!$D$16</f>
@@ -11542,7 +11535,7 @@
         <v>0.2</v>
       </c>
       <c r="K85" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L85" s="65">
         <v>21</v>
@@ -11556,17 +11549,17 @@
     </row>
     <row r="86" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C86" s="63">
         <f>'[5]Fact. con.'!$E$172</f>
         <v>1.1785939186739979E-4</v>
       </c>
       <c r="D86" s="103" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G86" s="64">
         <f>'[6]FE GL - 1A3b'!$D$14</f>
@@ -11581,7 +11574,7 @@
         <v>3.2</v>
       </c>
       <c r="K86" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L86" s="65">
         <v>310</v>
@@ -11595,17 +11588,17 @@
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C87" s="63">
         <f>'[5]Fact. con.'!$E$177</f>
         <v>1.3450438699049401E-4</v>
       </c>
       <c r="D87" s="103" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G87" s="64">
         <f>'[6]FE GL - 1A3b'!$D$15</f>
@@ -11620,12 +11613,12 @@
         <v>3.9</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C88" s="63">
         <f>'[5]Fact. con.'!$E$187</f>
@@ -11636,7 +11629,7 @@
         <v>TJ/gal</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G88" s="64">
         <f>'[5]FE CE'!$F$25</f>
@@ -11651,39 +11644,39 @@
         <v>0.6</v>
       </c>
       <c r="K88" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D92" s="80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D93" s="104">
         <v>0.05</v>
@@ -11691,10 +11684,10 @@
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D94" s="104">
         <v>7.8E-2</v>
@@ -11706,14 +11699,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:O48"/>
     <mergeCell ref="A16:A19"/>
@@ -11730,18 +11727,14 @@
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="T22:X22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -11761,305 +11754,279 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="130" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="129" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="130" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
       <c r="E4" s="107"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="160" t="s">
+      <c r="F4" s="108"/>
+      <c r="G4" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="163" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="162" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" s="164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="39.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:9" ht="39.75" x14ac:dyDescent="0.25">
       <c r="B5" s="109" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="162"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="166"/>
+    </row>
+    <row r="6" spans="2:9" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="161"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="111" t="s">
+      <c r="G6" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="113" t="s">
+      <c r="H6" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="I6" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="115" t="s">
-        <v>194</v>
-      </c>
-      <c r="J6" s="116" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="117">
         <v>2018</v>
       </c>
       <c r="C7" s="118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="119">
         <v>222</v>
       </c>
-      <c r="F7" s="117">
-        <v>1</v>
-      </c>
-      <c r="G7" s="120" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="166">
+      <c r="F7" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="131">
         <f>E7*1000/Factores!$C$41*Factores!$V$7/1000000</f>
         <v>243.85133230103492</v>
       </c>
-      <c r="I7" s="167">
+      <c r="H7" s="132">
         <f>(E7/(1-Factores!C67)*1000/Factores!C41*Factores!C50/1000)</f>
         <v>42.167331466937547</v>
       </c>
-      <c r="J7" s="121">
-        <f>H7-I7</f>
+      <c r="I7" s="121">
+        <f>G7-H7</f>
         <v>201.68400083409736</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="117">
         <v>2018</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="119">
         <v>256</v>
       </c>
-      <c r="F8" s="117">
-        <v>1</v>
-      </c>
-      <c r="G8" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="166">
+      <c r="F8" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="131">
         <f>E8*1000/Factores!C43*Factores!V12/1000000</f>
         <v>180.07994670726831</v>
       </c>
-      <c r="I8" s="167">
+      <c r="H8" s="132">
         <f>(E8/(1-Factores!C67)*1000/Factores!C43*Factores!C52/1000)</f>
         <v>48.622335638281641</v>
       </c>
-      <c r="J8" s="121">
-        <f t="shared" ref="J8:J12" si="0">H8-I8</f>
+      <c r="I8" s="121">
+        <f t="shared" ref="I8:I12" si="0">G8-H8</f>
         <v>131.45761106898667</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="117">
         <v>2018</v>
       </c>
       <c r="C9" s="118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="119">
         <v>369</v>
       </c>
-      <c r="F9" s="117">
-        <v>1</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="166">
+      <c r="F9" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="131">
         <f>E9*1000/Factores!C42*Factores!V19/1000000</f>
         <v>301.60149323423457</v>
       </c>
-      <c r="I9" s="167">
+      <c r="H9" s="132">
         <f>(E9/(1-Factores!C67)*1000/Factores!C42*Factores!C51/1000)</f>
         <v>70.084538478616921</v>
       </c>
-      <c r="J9" s="121">
-        <f>H9-I9</f>
+      <c r="I9" s="121">
+        <f>G9-H9</f>
         <v>231.51695475561763</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="117">
         <v>2018</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="119">
         <v>409</v>
       </c>
-      <c r="F10" s="117">
-        <v>1</v>
-      </c>
-      <c r="G10" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="166">
+      <c r="F10" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="131">
         <f>E10*1000/Factores!C44*Factores!V25/1000000</f>
         <v>836.92823142253769</v>
       </c>
-      <c r="I10" s="167">
+      <c r="H10" s="132">
         <f>(E10/(1-Factores!C67)*1000/Factores!C44*Factores!C53/1000)</f>
         <v>77.681778422098404</v>
       </c>
-      <c r="J10" s="121">
-        <f>H10-I10</f>
+      <c r="I10" s="121">
+        <f>G10-H10</f>
         <v>759.24645300043926</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="117">
         <v>2018</v>
       </c>
       <c r="C11" s="118" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="122">
         <v>2430</v>
       </c>
-      <c r="F11" s="117">
-        <v>1</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="166">
+      <c r="F11" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="131">
         <f>E11*1000/Factores!$C$45*Factores!$V$30/1000000</f>
         <v>4323.6389072340735</v>
       </c>
-      <c r="I11" s="167">
+      <c r="H11" s="132">
         <f>(E11/(1-Factores!C67)*1000/Factores!C45*Factores!D54/1000)</f>
         <v>461.53232656650158</v>
       </c>
-      <c r="J11" s="121">
-        <f t="shared" ref="J11" si="1">H11-I11</f>
+      <c r="I11" s="121">
+        <f t="shared" ref="I11" si="1">G11-H11</f>
         <v>3862.106580667572</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="117">
         <v>2018</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="122">
         <v>1660</v>
       </c>
-      <c r="F12" s="117">
-        <v>1</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="166">
+      <c r="F12" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="131">
         <f>E12*1000/Factores!C46*Factores!V35/1000000</f>
         <v>3945.3951864533119</v>
       </c>
-      <c r="I12" s="167">
+      <c r="H12" s="132">
         <f>(E12/(1-Factores!C67)*1000/Factores!C46*Factores!D55/1000)</f>
         <v>315.28545765448251</v>
       </c>
-      <c r="J12" s="121">
+      <c r="I12" s="121">
         <f t="shared" si="0"/>
         <v>3630.1097287988296</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="123"/>
       <c r="D13" s="123"/>
       <c r="E13" s="124"/>
       <c r="F13" s="125"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128">
-        <f>SUM(J7:J12)</f>
+      <c r="G13" s="124"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127">
+        <f>SUM(I7:I12)</f>
         <v>8816.1213291255426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
